--- a/biology/Zoologie/Agrilus/Agrilus.xlsx
+++ b/biology/Zoologie/Agrilus/Agrilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrilus, les agriles, est un genre d'insectes coléoptères de la famille des Buprestidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres buprestes ils ont un corps cunéiforme aux téguments épais souvent à reflets  métalliques.
 </t>
@@ -542,7 +556,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes vivent et se nourrissent sur les fleurs. 
 Les larves sont xylophages, elles se nourrissent et se développent dans le bois mort.
@@ -574,9 +590,11 @@
           <t>Liste des sous-genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 août 2014)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 août 2014) :
 Agrilus abditus
 Agrilus abductus
 Agrilus abjectus
@@ -761,13 +779,13 @@
 Agrilus walsinghami
 Agrilus waltersi
 Agrilus wenzeli
-Selon ITIS      (28 août 2014)[2] :
+Selon ITIS      (28 août 2014) :
 Agrilus derasofasciatus Lacordaire, 1835
 Agrilus sulcicollis Lacordaire, 1835
 sous-genre Agrilus (Agrilus) Curtis, 1825
 sous-genre Agrilus (Engyaulus) Waterhouse, 1889
 Agrilus rifkindi Hespenheide in Hespenheide &amp; Bellamy, 2009
-Selon NCBI  (28 août 2014)[3] :
+Selon NCBI  (28 août 2014) :
 Agrilus angustulus
 Agrilus biguttatus
 Agrilus coxalis
@@ -809,7 +827,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste d'insectes xylophages</t>
         </is>
